--- a/ÁTLAG.xlsx
+++ b/ÁTLAG.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ogike\Desktop\Semester4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ogike\Desktop\Uni\Semester4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AC0DDB-2886-4BE7-8C91-45CA4527B09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Tárgyak" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -146,8 +145,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +199,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +227,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -373,10 +385,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -441,9 +454,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Jó" xfId="1" builtinId="26"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -745,23 +762,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="20" max="20" width="0" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -778,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>25</v>
       </c>
@@ -796,14 +813,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="20">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="21">
         <v>4</v>
       </c>
       <c r="D3" s="16">
@@ -814,14 +831,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="20">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="21">
         <v>5</v>
       </c>
       <c r="D4" s="16">
@@ -832,14 +849,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="20">
         <v>2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="21">
         <v>5</v>
       </c>
       <c r="D5" s="16">
@@ -850,32 +867,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="20">
         <v>3</v>
       </c>
-      <c r="C6" s="9">
-        <v>4</v>
+      <c r="C6" s="21">
+        <v>3</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="20">
         <v>5</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="21">
         <v>5</v>
       </c>
       <c r="D7" s="16">
@@ -886,14 +903,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="20">
         <v>3</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="21">
         <v>5</v>
       </c>
       <c r="D8" s="16">
@@ -904,25 +921,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="20">
         <v>3</v>
       </c>
-      <c r="C9" s="9">
-        <v>3</v>
+      <c r="C9" s="21">
+        <v>4</v>
       </c>
       <c r="D9" s="16">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>33</v>
       </c>
@@ -930,17 +947,17 @@
         <v>2</v>
       </c>
       <c r="C10" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>34</v>
       </c>
@@ -948,24 +965,24 @@
         <v>2</v>
       </c>
       <c r="C11" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="20">
         <v>3</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="21">
         <v>4</v>
       </c>
       <c r="D12" s="16">
@@ -976,7 +993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>36</v>
       </c>
@@ -984,17 +1001,17 @@
         <v>2</v>
       </c>
       <c r="C13" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="18"/>
       <c r="C14" s="9"/>
@@ -1006,7 +1023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="18"/>
       <c r="C15" s="9"/>
@@ -1018,7 +1035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="18"/>
       <c r="C16" s="9"/>
@@ -1030,7 +1047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="18"/>
       <c r="C17" s="9"/>
@@ -1042,7 +1059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="19"/>
       <c r="C18" s="11"/>
@@ -1054,25 +1071,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="4">
         <f>SUMIF(C2:C18,"&gt;"&amp;1,D2:D18)/SUMIF(C2:C18,"&gt;"&amp;1,B2:B18)</f>
-        <v>4.0625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="5">
         <f>SUMIF(C2:C18,"&gt;"&amp;1,D2:D18)/30</f>
-        <v>4.333333333333333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4.2666666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
